--- a/VIX Futures/2018 Futures vs VIX.xlsx
+++ b/VIX Futures/2018 Futures vs VIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ŽanJarc\Documents\GitHub\DIP-SEM\VIX Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C352C7-5D30-446D-9F3E-A70A51F1D33E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F99076-B06A-44E0-BD50-7869F9456E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{C880D79E-9037-41F6-8B70-49BA65DF8D76}"/>
   </bookViews>
@@ -163,7 +163,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -176,19 +176,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
               <a:t>VIX</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
               <a:t> terminski posli </a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2000" b="1"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2000" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -205,7 +205,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -229,9 +229,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.3493947584910098E-2"/>
-          <c:y val="8.0504305043050436E-2"/>
+          <c:y val="0.10202952029520296"/>
           <c:w val="0.9565060524150899"/>
-          <c:h val="0.62442058672555234"/>
+          <c:h val="0.60289537147339978"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4475,7 +4475,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$100:$A$231</c15:sqref>
@@ -5590,7 +5590,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-8C06-47A2-A483-AF5133B6A4E3}"/>
                   </c:ext>
@@ -5632,7 +5632,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$100:$A$231</c15:sqref>
@@ -6747,7 +6747,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-8C06-47A2-A483-AF5133B6A4E3}"/>
                   </c:ext>
@@ -6789,7 +6789,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$100:$A$231</c15:sqref>
@@ -7904,7 +7904,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-8C06-47A2-A483-AF5133B6A4E3}"/>
                   </c:ext>
@@ -8043,7 +8043,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -8666,13 +8666,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180109</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9001,7 +9001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2720D89A-A467-4329-AA1E-6A4227F3BB34}">
   <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>

--- a/VIX Futures/2018 Futures vs VIX.xlsx
+++ b/VIX Futures/2018 Futures vs VIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ŽanJarc\Documents\GitHub\DIP-SEM\VIX Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F99076-B06A-44E0-BD50-7869F9456E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D144284-0A66-4DC8-8681-44FF46471C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{C880D79E-9037-41F6-8B70-49BA65DF8D76}"/>
   </bookViews>
@@ -48,19 +48,19 @@
     <t>VIX Low</t>
   </si>
   <si>
-    <t>VIX Close</t>
-  </si>
-  <si>
     <t>S&amp;P 500 Close</t>
   </si>
   <si>
-    <t>Feb 2018 Futures Close</t>
+    <t>VIX ob zaprtju</t>
   </si>
   <si>
-    <t>Jan 2018 Futures Close</t>
+    <t>Jan 2018 VIX terminski posel ob zaprtju</t>
   </si>
   <si>
-    <t>Mar 2018 Futures Close</t>
+    <t>Feb 2018 VIX terminski posel ob zaprtju</t>
+  </si>
+  <si>
+    <t>Mar 2018 VIX terminski posel ob zaprtju</t>
   </si>
 </sst>
 </file>
@@ -246,7 +246,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VIX Close</c:v>
+                  <c:v>VIX ob zaprtju</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1089,7 +1089,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jan 2018 Futures Close</c:v>
+                  <c:v>Jan 2018 VIX terminski posel ob zaprtju</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1800,7 +1800,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feb 2018 Futures Close</c:v>
+                  <c:v>Feb 2018 VIX terminski posel ob zaprtju</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2571,7 +2571,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mar 2018 Futures Close</c:v>
+                  <c:v>Mar 2018 VIX terminski posel ob zaprtju</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9002,7 +9002,7 @@
   <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9029,16 +9029,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>

--- a/VIX Futures/2018 Futures vs VIX.xlsx
+++ b/VIX Futures/2018 Futures vs VIX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ŽanJarc\Documents\GitHub\DIP-SEM\VIX Futures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uporabnik\Desktop\DIP-SEM\VIX Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D144284-0A66-4DC8-8681-44FF46471C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F0FCF7-856E-4895-884A-8C5C6995321E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{C880D79E-9037-41F6-8B70-49BA65DF8D76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C880D79E-9037-41F6-8B70-49BA65DF8D76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,13 +54,13 @@
     <t>VIX ob zaprtju</t>
   </si>
   <si>
-    <t>Jan 2018 VIX terminski posel ob zaprtju</t>
+    <t>Jan 2018 VIX terminska pogodba ob zaprtju</t>
   </si>
   <si>
-    <t>Feb 2018 VIX terminski posel ob zaprtju</t>
+    <t>Feb 2018 VIX terminska pogodba ob zaprtju</t>
   </si>
   <si>
-    <t>Mar 2018 VIX terminski posel ob zaprtju</t>
+    <t>Mar 2018 VIX terminska pogodba ob zaprtju</t>
   </si>
 </sst>
 </file>
@@ -127,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -145,7 +145,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="sl-SI"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -181,7 +181,23 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
-              <a:t> terminski posli </a:t>
+              <a:t> terminsk</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="2000" b="1" baseline="0"/>
+              <a:t>e</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+              <a:t> po</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="2000" b="1" baseline="0"/>
+              <a:t>godbe</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -217,7 +233,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SI"/>
+          <a:endParaRPr lang="sl-SI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -228,8 +244,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.3493947584910098E-2"/>
-          <c:y val="0.10202952029520296"/>
+          <c:x val="3.4004095709304447E-2"/>
+          <c:y val="0.11135944014485649"/>
           <c:w val="0.9565060524150899"/>
           <c:h val="0.60289537147339978"/>
         </c:manualLayout>
@@ -1089,7 +1105,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jan 2018 VIX terminski posel ob zaprtju</c:v>
+                  <c:v>Jan 2018 VIX terminska pogodba ob zaprtju</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1800,7 +1816,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feb 2018 VIX terminski posel ob zaprtju</c:v>
+                  <c:v>Feb 2018 VIX terminska pogodba ob zaprtju</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2571,7 +2587,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mar 2018 VIX terminski posel ob zaprtju</c:v>
+                  <c:v>Mar 2018 VIX terminska pogodba ob zaprtju</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7943,7 +7959,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7955,7 +7971,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SI"/>
+            <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1494927776"/>
@@ -8001,7 +8017,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8013,7 +8029,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SI"/>
+            <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1096448864"/>
@@ -8030,6 +8046,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16746996041298251"/>
+          <c:y val="0.83399870372611706"/>
+          <c:w val="0.65584155756721763"/>
+          <c:h val="0.11468662881919146"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8055,7 +8081,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SI"/>
+          <a:endParaRPr lang="sl-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8092,7 +8118,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-SI"/>
+      <a:endParaRPr lang="sl-SI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8663,16 +8689,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>180109</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>110836</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>353291</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180109</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8703,9 +8729,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pisarna">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8743,7 +8769,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pisarna">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8849,7 +8875,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pisarna">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9002,20 +9028,20 @@
   <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.83984375" customWidth="1"/>
-    <col min="5" max="5" width="11.83984375" customWidth="1"/>
-    <col min="6" max="6" width="15.68359375" customWidth="1"/>
-    <col min="7" max="7" width="20.1015625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="21.41796875" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9044,7 +9070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42849</v>
       </c>
@@ -9064,7 +9090,7 @@
         <v>2374.15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42850</v>
       </c>
@@ -9087,7 +9113,7 @@
         <v>16.760000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42851</v>
       </c>
@@ -9110,7 +9136,7 @@
         <v>16.91</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42852</v>
       </c>
@@ -9133,7 +9159,7 @@
         <v>16.97</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42853</v>
       </c>
@@ -9156,7 +9182,7 @@
         <v>16.95</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42856</v>
       </c>
@@ -9179,7 +9205,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42857</v>
       </c>
@@ -9202,7 +9228,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42858</v>
       </c>
@@ -9225,7 +9251,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42859</v>
       </c>
@@ -9248,7 +9274,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42860</v>
       </c>
@@ -9271,7 +9297,7 @@
         <v>16.850000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42863</v>
       </c>
@@ -9294,7 +9320,7 @@
         <v>16.95</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42864</v>
       </c>
@@ -9317,7 +9343,7 @@
         <v>16.95</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42865</v>
       </c>
@@ -9340,7 +9366,7 @@
         <v>17.05</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42866</v>
       </c>
@@ -9363,7 +9389,7 @@
         <v>17.05</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42867</v>
       </c>
@@ -9386,7 +9412,7 @@
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42870</v>
       </c>
@@ -9409,7 +9435,7 @@
         <v>17.170000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42871</v>
       </c>
@@ -9432,7 +9458,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42872</v>
       </c>
@@ -9455,7 +9481,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42873</v>
       </c>
@@ -9478,7 +9504,7 @@
         <v>17.690000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42874</v>
       </c>
@@ -9501,7 +9527,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42877</v>
       </c>
@@ -9525,7 +9551,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42878</v>
       </c>
@@ -9551,7 +9577,7 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42879</v>
       </c>
@@ -9577,7 +9603,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42880</v>
       </c>
@@ -9603,7 +9629,7 @@
         <v>17.54</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42881</v>
       </c>
@@ -9629,7 +9655,7 @@
         <v>17.54</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42885</v>
       </c>
@@ -9655,7 +9681,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42886</v>
       </c>
@@ -9681,7 +9707,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42887</v>
       </c>
@@ -9707,7 +9733,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42888</v>
       </c>
@@ -9733,7 +9759,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42891</v>
       </c>
@@ -9759,7 +9785,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42892</v>
       </c>
@@ -9785,7 +9811,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42893</v>
       </c>
@@ -9811,7 +9837,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42894</v>
       </c>
@@ -9837,7 +9863,7 @@
         <v>17.329999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42895</v>
       </c>
@@ -9863,7 +9889,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42898</v>
       </c>
@@ -9889,7 +9915,7 @@
         <v>17.440000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42899</v>
       </c>
@@ -9915,7 +9941,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42900</v>
       </c>
@@ -9941,7 +9967,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42901</v>
       </c>
@@ -9967,7 +9993,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42902</v>
       </c>
@@ -9993,7 +10019,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42905</v>
       </c>
@@ -10019,7 +10045,7 @@
         <v>16.920000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42906</v>
       </c>
@@ -10045,7 +10071,7 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42907</v>
       </c>
@@ -10071,7 +10097,7 @@
         <v>16.97</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42908</v>
       </c>
@@ -10097,7 +10123,7 @@
         <v>16.97</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42909</v>
       </c>
@@ -10123,7 +10149,7 @@
         <v>16.87</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42912</v>
       </c>
@@ -10150,7 +10176,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42913</v>
       </c>
@@ -10179,7 +10205,7 @@
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42914</v>
       </c>
@@ -10208,7 +10234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42915</v>
       </c>
@@ -10237,7 +10263,7 @@
         <v>17.18</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>42916</v>
       </c>
@@ -10266,7 +10292,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>42919</v>
       </c>
@@ -10295,7 +10321,7 @@
         <v>17.34</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>42921</v>
       </c>
@@ -10324,7 +10350,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>42922</v>
       </c>
@@ -10353,7 +10379,7 @@
         <v>17.46</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>42923</v>
       </c>
@@ -10382,7 +10408,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>42926</v>
       </c>
@@ -10411,7 +10437,7 @@
         <v>17.170000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>42927</v>
       </c>
@@ -10440,7 +10466,7 @@
         <v>17.170000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>42928</v>
       </c>
@@ -10469,7 +10495,7 @@
         <v>17.02</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>42929</v>
       </c>
@@ -10498,7 +10524,7 @@
         <v>16.87</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>42930</v>
       </c>
@@ -10527,7 +10553,7 @@
         <v>16.55</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>42933</v>
       </c>
@@ -10556,7 +10582,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>42934</v>
       </c>
@@ -10585,7 +10611,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>42935</v>
       </c>
@@ -10614,7 +10640,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>42936</v>
       </c>
@@ -10643,7 +10669,7 @@
         <v>16.62</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>42937</v>
       </c>
@@ -10672,7 +10698,7 @@
         <v>16.55</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>42940</v>
       </c>
@@ -10701,7 +10727,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>42941</v>
       </c>
@@ -10730,7 +10756,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>42942</v>
       </c>
@@ -10759,7 +10785,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>42943</v>
       </c>
@@ -10788,7 +10814,7 @@
         <v>16.05</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>42944</v>
       </c>
@@ -10817,7 +10843,7 @@
         <v>16.04</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>42947</v>
       </c>
@@ -10846,7 +10872,7 @@
         <v>16.05</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>42948</v>
       </c>
@@ -10875,7 +10901,7 @@
         <v>15.83</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>42949</v>
       </c>
@@ -10904,7 +10930,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>42950</v>
       </c>
@@ -10933,7 +10959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>42951</v>
       </c>
@@ -10962,7 +10988,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>42954</v>
       </c>
@@ -10991,7 +11017,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>42955</v>
       </c>
@@ -11020,7 +11046,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>42956</v>
       </c>
@@ -11049,7 +11075,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>42957</v>
       </c>
@@ -11078,7 +11104,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>42958</v>
       </c>
@@ -11107,7 +11133,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>42961</v>
       </c>
@@ -11136,7 +11162,7 @@
         <v>16.37</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>42962</v>
       </c>
@@ -11165,7 +11191,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>42963</v>
       </c>
@@ -11194,7 +11220,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>42964</v>
       </c>
@@ -11223,7 +11249,7 @@
         <v>16.809999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>42965</v>
       </c>
@@ -11252,7 +11278,7 @@
         <v>16.93</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>42968</v>
       </c>
@@ -11281,7 +11307,7 @@
         <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>42969</v>
       </c>
@@ -11310,7 +11336,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>42970</v>
       </c>
@@ -11339,7 +11365,7 @@
         <v>16.43</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>42971</v>
       </c>
@@ -11368,7 +11394,7 @@
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>42972</v>
       </c>
@@ -11397,7 +11423,7 @@
         <v>16.39</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>42975</v>
       </c>
@@ -11426,7 +11452,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>42976</v>
       </c>
@@ -11455,7 +11481,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>42977</v>
       </c>
@@ -11484,7 +11510,7 @@
         <v>16.45</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>42978</v>
       </c>
@@ -11513,7 +11539,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>42979</v>
       </c>
@@ -11542,7 +11568,7 @@
         <v>16.32</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>42983</v>
       </c>
@@ -11571,7 +11597,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>42984</v>
       </c>
@@ -11600,7 +11626,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>42985</v>
       </c>
@@ -11629,7 +11655,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>42986</v>
       </c>
@@ -11658,7 +11684,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>42989</v>
       </c>
@@ -11687,7 +11713,7 @@
         <v>16.45</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>42990</v>
       </c>
@@ -11716,7 +11742,7 @@
         <v>16.28</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>42991</v>
       </c>
@@ -11745,7 +11771,7 @@
         <v>16.05</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>42992</v>
       </c>
@@ -11774,7 +11800,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42993</v>
       </c>
@@ -11803,7 +11829,7 @@
         <v>16.12</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>42996</v>
       </c>
@@ -11832,7 +11858,7 @@
         <v>15.83</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42997</v>
       </c>
@@ -11861,7 +11887,7 @@
         <v>15.97</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42998</v>
       </c>
@@ -11890,7 +11916,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42999</v>
       </c>
@@ -11919,7 +11945,7 @@
         <v>15.92</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43000</v>
       </c>
@@ -11948,7 +11974,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43003</v>
       </c>
@@ -11977,7 +12003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43004</v>
       </c>
@@ -12006,7 +12032,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43005</v>
       </c>
@@ -12035,7 +12061,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43006</v>
       </c>
@@ -12064,7 +12090,7 @@
         <v>15.89</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43007</v>
       </c>
@@ -12093,7 +12119,7 @@
         <v>15.82</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43010</v>
       </c>
@@ -12122,7 +12148,7 @@
         <v>15.52</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43011</v>
       </c>
@@ -12151,7 +12177,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43012</v>
       </c>
@@ -12180,7 +12206,7 @@
         <v>15.45</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43013</v>
       </c>
@@ -12209,7 +12235,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43014</v>
       </c>
@@ -12238,7 +12264,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43017</v>
       </c>
@@ -12267,7 +12293,7 @@
         <v>15.45</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43018</v>
       </c>
@@ -12296,7 +12322,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43019</v>
       </c>
@@ -12325,7 +12351,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43020</v>
       </c>
@@ -12354,7 +12380,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43021</v>
       </c>
@@ -12383,7 +12409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43024</v>
       </c>
@@ -12412,7 +12438,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43025</v>
       </c>
@@ -12441,7 +12467,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43026</v>
       </c>
@@ -12470,7 +12496,7 @@
         <v>14.87</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43027</v>
       </c>
@@ -12499,7 +12525,7 @@
         <v>14.72</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43028</v>
       </c>
@@ -12528,7 +12554,7 @@
         <v>14.65</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43031</v>
       </c>
@@ -12557,7 +12583,7 @@
         <v>14.87</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43032</v>
       </c>
@@ -12586,7 +12612,7 @@
         <v>14.89</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43033</v>
       </c>
@@ -12615,7 +12641,7 @@
         <v>14.92</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43034</v>
       </c>
@@ -12644,7 +12670,7 @@
         <v>14.97</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43035</v>
       </c>
@@ -12673,7 +12699,7 @@
         <v>14.55</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43038</v>
       </c>
@@ -12702,7 +12728,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43039</v>
       </c>
@@ -12731,7 +12757,7 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43040</v>
       </c>
@@ -12760,7 +12786,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43041</v>
       </c>
@@ -12789,7 +12815,7 @@
         <v>14.66</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43042</v>
       </c>
@@ -12818,7 +12844,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43045</v>
       </c>
@@ -12847,7 +12873,7 @@
         <v>14.65</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43046</v>
       </c>
@@ -12876,7 +12902,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43047</v>
       </c>
@@ -12905,7 +12931,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43048</v>
       </c>
@@ -12934,7 +12960,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43049</v>
       </c>
@@ -12963,7 +12989,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43052</v>
       </c>
@@ -12992,7 +13018,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43053</v>
       </c>
@@ -13021,7 +13047,7 @@
         <v>15.49</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43054</v>
       </c>
@@ -13050,7 +13076,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43055</v>
       </c>
@@ -13079,7 +13105,7 @@
         <v>15.45</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43056</v>
       </c>
@@ -13108,7 +13134,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43059</v>
       </c>
@@ -13137,7 +13163,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43060</v>
       </c>
@@ -13166,7 +13192,7 @@
         <v>14.65</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43061</v>
       </c>
@@ -13195,7 +13221,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43063</v>
       </c>
@@ -13224,7 +13250,7 @@
         <v>14.52</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43066</v>
       </c>
@@ -13253,7 +13279,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43067</v>
       </c>
@@ -13282,7 +13308,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43068</v>
       </c>
@@ -13311,7 +13337,7 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43069</v>
       </c>
@@ -13340,7 +13366,7 @@
         <v>14.65</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43070</v>
       </c>
@@ -13369,7 +13395,7 @@
         <v>14.87</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43073</v>
       </c>
@@ -13398,7 +13424,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43074</v>
       </c>
@@ -13427,7 +13453,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43075</v>
       </c>
@@ -13456,7 +13482,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43076</v>
       </c>
@@ -13485,7 +13511,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43077</v>
       </c>
@@ -13514,7 +13540,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43080</v>
       </c>
@@ -13543,7 +13569,7 @@
         <v>14.09</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43081</v>
       </c>
@@ -13572,7 +13598,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43082</v>
       </c>
@@ -13601,7 +13627,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43083</v>
       </c>
@@ -13630,7 +13656,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43084</v>
       </c>
@@ -13659,7 +13685,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43087</v>
       </c>
@@ -13688,7 +13714,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43088</v>
       </c>
@@ -13717,7 +13743,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43089</v>
       </c>
@@ -13746,7 +13772,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43090</v>
       </c>
@@ -13775,7 +13801,7 @@
         <v>13.13</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43091</v>
       </c>
@@ -13804,7 +13830,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43095</v>
       </c>
@@ -13833,7 +13859,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43096</v>
       </c>
@@ -13862,7 +13888,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>43097</v>
       </c>
@@ -13891,7 +13917,7 @@
         <v>13.07</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>43098</v>
       </c>
@@ -13920,7 +13946,7 @@
         <v>13.23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43102</v>
       </c>
@@ -13949,7 +13975,7 @@
         <v>12.82</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43103</v>
       </c>
@@ -13978,7 +14004,7 @@
         <v>12.65</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43104</v>
       </c>
@@ -14007,7 +14033,7 @@
         <v>12.65</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43105</v>
       </c>
@@ -14036,7 +14062,7 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43108</v>
       </c>
@@ -14065,7 +14091,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43109</v>
       </c>
@@ -14094,7 +14120,7 @@
         <v>12.54</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>43110</v>
       </c>
@@ -14123,7 +14149,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>43111</v>
       </c>
@@ -14152,7 +14178,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>43112</v>
       </c>
@@ -14181,7 +14207,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>43116</v>
       </c>
@@ -14210,7 +14236,7 @@
         <v>12.71</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43117</v>
       </c>
@@ -14239,7 +14265,7 @@
         <v>12.57</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43118</v>
       </c>
@@ -14265,7 +14291,7 @@
         <v>12.76</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>43119</v>
       </c>
@@ -14291,7 +14317,7 @@
         <v>12.54</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>43122</v>
       </c>
@@ -14317,7 +14343,7 @@
         <v>12.49</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43123</v>
       </c>
@@ -14343,7 +14369,7 @@
         <v>12.73</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43124</v>
       </c>
@@ -14369,7 +14395,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43125</v>
       </c>
@@ -14395,7 +14421,7 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>43126</v>
       </c>
@@ -14421,7 +14447,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>43129</v>
       </c>
@@ -14447,7 +14473,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>43130</v>
       </c>
@@ -14473,7 +14499,7 @@
         <v>14.05</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>43131</v>
       </c>
@@ -14499,7 +14525,7 @@
         <v>13.67</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>43132</v>
       </c>
@@ -14525,7 +14551,7 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>43133</v>
       </c>
@@ -14551,7 +14577,7 @@
         <v>14.98</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>43136</v>
       </c>
@@ -14577,7 +14603,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>43137</v>
       </c>
@@ -14603,7 +14629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>43138</v>
       </c>
@@ -14629,7 +14655,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>43139</v>
       </c>
@@ -14655,7 +14681,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>43140</v>
       </c>
@@ -14681,7 +14707,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>43143</v>
       </c>
@@ -14707,7 +14733,7 @@
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>43144</v>
       </c>
@@ -14733,7 +14759,7 @@
         <v>19.84</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>43145</v>
       </c>
@@ -14759,7 +14785,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>43146</v>
       </c>
@@ -14782,7 +14808,7 @@
         <v>17.55</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>43147</v>
       </c>
@@ -14805,7 +14831,7 @@
         <v>17.760000000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>43151</v>
       </c>
@@ -14828,7 +14854,7 @@
         <v>18.36</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>43152</v>
       </c>
@@ -14851,7 +14877,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>43153</v>
       </c>
@@ -14874,7 +14900,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>43154</v>
       </c>
@@ -14897,7 +14923,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>43157</v>
       </c>
@@ -14920,7 +14946,7 @@
         <v>16.07</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>43158</v>
       </c>
@@ -14943,7 +14969,7 @@
         <v>17.55</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>43159</v>
       </c>
@@ -14966,7 +14992,7 @@
         <v>18.62</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>43160</v>
       </c>
@@ -14989,7 +15015,7 @@
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>43161</v>
       </c>
@@ -15012,7 +15038,7 @@
         <v>19.11</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>43164</v>
       </c>
@@ -15035,7 +15061,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>43165</v>
       </c>
@@ -15058,7 +15084,7 @@
         <v>18.22</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>43166</v>
       </c>
@@ -15081,7 +15107,7 @@
         <v>17.95</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>43167</v>
       </c>
@@ -15104,7 +15130,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>43168</v>
       </c>
@@ -15127,7 +15153,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>43171</v>
       </c>
@@ -15150,7 +15176,7 @@
         <v>16.149999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>43172</v>
       </c>
@@ -15173,7 +15199,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>43173</v>
       </c>
@@ -15196,7 +15222,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>43174</v>
       </c>
@@ -15219,7 +15245,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>43175</v>
       </c>
@@ -15242,7 +15268,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>43178</v>
       </c>
@@ -15265,7 +15291,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>43179</v>
       </c>
@@ -15288,7 +15314,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>43180</v>
       </c>

--- a/VIX Futures/2018 Futures vs VIX.xlsx
+++ b/VIX Futures/2018 Futures vs VIX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uporabnik\Desktop\DIP-SEM\VIX Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F0FCF7-856E-4895-884A-8C5C6995321E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999518FE-B102-4A2A-971C-7CA0A95F0C8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C880D79E-9037-41F6-8B70-49BA65DF8D76}"/>
   </bookViews>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,16 +54,16 @@
     <t>S&amp;P 500 Close</t>
   </si>
   <si>
-    <t>VIX ob zaprtju</t>
+    <t>Vrednost indeks VIX ob koncu trgovanja</t>
   </si>
   <si>
-    <t>Jan 2018 VIX terminska pogodba ob zaprtju</t>
+    <t>Izročitvena vrednost Jan 2018 VIX terminske pogodbe ob koncu trgovanja</t>
   </si>
   <si>
-    <t>Feb 2018 VIX terminska pogodba ob zaprtju</t>
+    <t>Izročitvena vrednost Feb 2018 VIX terminske pogodbe ob koncu trgovanja</t>
   </si>
   <si>
-    <t>Mar 2018 VIX terminska pogodba ob zaprtju</t>
+    <t>Izročitvena vrednost Mar 2018 VIX terminske pogodbe ob koncu trgovanja</t>
   </si>
 </sst>
 </file>
@@ -176,8 +179,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1"/>
-              <a:t>VIX</a:t>
+              <a:rPr lang="sl-SI" sz="2000" b="1"/>
+              <a:t>Izročitvene vrednosti</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
@@ -185,7 +188,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="sl-SI" sz="2000" b="1" baseline="0"/>
-              <a:t>e</a:t>
+              <a:t>ih</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
@@ -193,7 +196,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="sl-SI" sz="2000" b="1" baseline="0"/>
-              <a:t>godbe</a:t>
+              <a:t>godb na indeks VIX in indeks VIX</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
@@ -233,7 +236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -247,7 +250,7 @@
           <c:x val="3.4004095709304447E-2"/>
           <c:y val="0.11135944014485649"/>
           <c:w val="0.9565060524150899"/>
-          <c:h val="0.60289537147339978"/>
+          <c:h val="0.51438956594689522"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -262,7 +265,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VIX ob zaprtju</c:v>
+                  <c:v>Vrednost indeks VIX ob koncu trgovanja</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1105,7 +1108,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jan 2018 VIX terminska pogodba ob zaprtju</c:v>
+                  <c:v>Izročitvena vrednost Jan 2018 VIX terminske pogodbe ob koncu trgovanja</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1816,7 +1819,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feb 2018 VIX terminska pogodba ob zaprtju</c:v>
+                  <c:v>Izročitvena vrednost Feb 2018 VIX terminske pogodbe ob koncu trgovanja</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2587,7 +2590,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mar 2018 VIX terminska pogodba ob zaprtju</c:v>
+                  <c:v>Izročitvena vrednost Mar 2018 VIX terminske pogodbe ob koncu trgovanja</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7937,7 +7940,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7971,7 +7974,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1494927776"/>
@@ -7979,6 +7982,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="1494927776"/>
@@ -8029,7 +8034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1096448864"/>
@@ -8050,10 +8055,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16746996041298251"/>
-          <c:y val="0.83399870372611706"/>
-          <c:w val="0.65584155756721763"/>
-          <c:h val="0.11468662881919146"/>
+          <c:x val="8.2532358082544298E-3"/>
+          <c:y val="0.70756188100740569"/>
+          <c:w val="0.98457721957950861"/>
+          <c:h val="0.24112337573555667"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8069,7 +8074,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -8081,7 +8086,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8118,7 +8123,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sl-SI"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8689,16 +8694,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>242455</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>311728</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>353291</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>180109</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9028,11 +9033,12 @@
   <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V52" sqref="V52"/>
+      <selection activeCell="AP22" sqref="AP22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
